--- a/quarter_2/edge_cases/edge_cases.xlsx
+++ b/quarter_2/edge_cases/edge_cases.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA88EC-B71B-4BAF-AC01-D16A74DCC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThysB\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097EA95-8660-4BE7-81AE-D737BE70072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +35,140 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="12">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="12">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Filename (with .png extension)</t>
   </si>
@@ -118,13 +255,19 @@
   </si>
   <si>
     <t>qrcode_2_3</t>
+  </si>
+  <si>
+    <t>Destination URL QR Code</t>
+  </si>
+  <si>
+    <t>Fake QR Code (no Noise)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +332,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,22 +770,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="50.85546875" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +806,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -562,8 +832,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -582,8 +855,11 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -602,8 +878,11 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
+      <c r="G4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -622,8 +901,14 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -642,8 +927,14 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G6" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -662,8 +953,14 @@
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G7" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -682,8 +979,11 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
+      <c r="G8" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -702,8 +1002,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
+      <c r="G9" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -721,6 +1024,9 @@
       </c>
       <c r="F10" t="s">
         <v>9</v>
+      </c>
+      <c r="G10" t="e" vm="12">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
